--- a/1_Data/Data Clean TM/Fama_french.xlsx
+++ b/1_Data/Data Clean TM/Fama_french.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corinne Vogel\Documents\UZH\Master 2. Semester\PMP\Code\PMP-Term-Paper\1_Data\Data Clean TM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBDC574-75A7-4234-80C7-0E51A8F0FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB3689-5A4C-4CB2-9CB6-14FEB35BEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA3216CF-DEC4-46D1-9F66-0B5851A1C5D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA3216CF-DEC4-46D1-9F66-0B5851A1C5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mkt-RF</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Dates(eom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom   </t>
   </si>
 </sst>
 </file>
@@ -415,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FCDE8B-D614-42B9-BAB6-873F496CAD80}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -440,8 +443,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>199911</v>
       </c>
@@ -454,8 +460,11 @@
       <c r="D2">
         <v>-8.3199999999999996E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>199912</v>
       </c>
@@ -468,8 +477,11 @@
       <c r="D3">
         <v>-1.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200001</v>
       </c>
@@ -482,8 +494,11 @@
       <c r="D4">
         <v>-9.6999999999999989E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200002</v>
       </c>
@@ -496,8 +511,11 @@
       <c r="D5">
         <v>8.1699999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>-6.83E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200003</v>
       </c>
@@ -510,8 +528,11 @@
       <c r="D6">
         <v>7.2599999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200004</v>
       </c>
@@ -524,8 +545,11 @@
       <c r="D7">
         <v>4.8099999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>-8.9800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200005</v>
       </c>
@@ -538,8 +562,11 @@
       <c r="D8">
         <v>-8.43E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200006</v>
       </c>
@@ -552,8 +579,11 @@
       <c r="D9">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200007</v>
       </c>
@@ -566,8 +596,11 @@
       <c r="D10">
         <v>-1.38E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>5.7300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200008</v>
       </c>
@@ -580,8 +613,11 @@
       <c r="D11">
         <v>7.17E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200009</v>
       </c>
@@ -594,8 +630,11 @@
       <c r="D12">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>-4.4800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200010</v>
       </c>
@@ -608,8 +647,11 @@
       <c r="D13">
         <v>0.1232</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200011</v>
       </c>
@@ -622,8 +664,11 @@
       <c r="D14">
         <v>7.6100000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>6.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200012</v>
       </c>
@@ -636,8 +681,11 @@
       <c r="D15">
         <v>-5.0900000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200101</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="D16">
         <v>0.12480000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0.12570000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200102</v>
       </c>
@@ -664,8 +715,11 @@
       <c r="D17">
         <v>6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200103</v>
       </c>
@@ -678,8 +732,11 @@
       <c r="D18">
         <v>-4.6799999999999994E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200104</v>
       </c>
@@ -692,8 +749,11 @@
       <c r="D19">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2.2099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200105</v>
       </c>
@@ -706,8 +766,11 @@
       <c r="D20">
         <v>-1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200106</v>
       </c>
@@ -720,8 +783,11 @@
       <c r="D21">
         <v>5.21E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200107</v>
       </c>
@@ -734,8 +800,11 @@
       <c r="D22">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200108</v>
       </c>
@@ -748,8 +817,11 @@
       <c r="D23">
         <v>1.4499999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200109</v>
       </c>
@@ -762,8 +834,11 @@
       <c r="D24">
         <v>-7.6600000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>-8.4700000000000011E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200110</v>
       </c>
@@ -776,8 +851,11 @@
       <c r="D25">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>-8.6899999999999991E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>200111</v>
       </c>
@@ -790,8 +868,11 @@
       <c r="D26">
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>7.000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200112</v>
       </c>
@@ -804,8 +885,11 @@
       <c r="D27">
         <v>3.44E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>200201</v>
       </c>
@@ -818,8 +902,11 @@
       <c r="D28">
         <v>2.1600000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>6.8199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200202</v>
       </c>
@@ -832,8 +919,11 @@
       <c r="D29">
         <v>1.06E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>-1.6399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200203</v>
       </c>
@@ -846,8 +936,11 @@
       <c r="D30">
         <v>3.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>7.6299999999999993E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200204</v>
       </c>
@@ -860,8 +953,11 @@
       <c r="D31">
         <v>1.5300000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>200205</v>
       </c>
@@ -874,8 +970,11 @@
       <c r="D32">
         <v>-2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200206</v>
       </c>
@@ -888,8 +987,11 @@
       <c r="D33">
         <v>-3.85E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200207</v>
       </c>
@@ -902,8 +1004,11 @@
       <c r="D34">
         <v>3.2899999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>200208</v>
       </c>
@@ -916,8 +1021,11 @@
       <c r="D35">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>200209</v>
       </c>
@@ -930,8 +1038,11 @@
       <c r="D36">
         <v>-3.9399999999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>-5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>200210</v>
       </c>
@@ -944,8 +1055,11 @@
       <c r="D37">
         <v>-1.21E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>-0.16329999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>200211</v>
       </c>
@@ -958,8 +1072,11 @@
       <c r="D38">
         <v>2.1400000000000002E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>9.64E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200212</v>
       </c>
@@ -972,8 +1089,11 @@
       <c r="D39">
         <v>-8.1000000000000013E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>200301</v>
       </c>
@@ -986,8 +1106,11 @@
       <c r="D40">
         <v>-1.38E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200302</v>
       </c>
@@ -1000,8 +1123,11 @@
       <c r="D41">
         <v>-1.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>200303</v>
       </c>
@@ -1014,8 +1140,11 @@
       <c r="D42">
         <v>1.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>-9.3299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200304</v>
       </c>
@@ -1028,8 +1157,11 @@
       <c r="D43">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>-0.107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>200305</v>
       </c>
@@ -1042,8 +1174,11 @@
       <c r="D44">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200306</v>
       </c>
@@ -1056,8 +1191,11 @@
       <c r="D45">
         <v>-1.24E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>200307</v>
       </c>
@@ -1070,8 +1208,11 @@
       <c r="D46">
         <v>1.54E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200308</v>
       </c>
@@ -1084,8 +1225,11 @@
       <c r="D47">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>-1.9E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>200309</v>
       </c>
@@ -1098,8 +1242,11 @@
       <c r="D48">
         <v>1.9699999999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>3.9900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200310</v>
       </c>
@@ -1112,8 +1259,11 @@
       <c r="D49">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>200311</v>
       </c>
@@ -1126,8 +1276,11 @@
       <c r="D50">
         <v>1.61E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>-5.57E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200312</v>
       </c>
@@ -1140,8 +1293,11 @@
       <c r="D51">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>200401</v>
       </c>
@@ -1154,8 +1310,11 @@
       <c r="D52">
         <v>9.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>-1.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200402</v>
       </c>
@@ -1168,8 +1327,11 @@
       <c r="D53">
         <v>2.8000000000000004E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>200403</v>
       </c>
@@ -1182,8 +1344,11 @@
       <c r="D54">
         <v>-3.0899999999999997E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>-5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>200404</v>
       </c>
@@ -1196,8 +1361,11 @@
       <c r="D55">
         <v>-2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200405</v>
       </c>
@@ -1210,8 +1378,11 @@
       <c r="D56">
         <v>1.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>2.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200406</v>
       </c>
@@ -1224,8 +1395,11 @@
       <c r="D57">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>-2.29E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>200407</v>
       </c>
@@ -1238,8 +1412,11 @@
       <c r="D58">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>200408</v>
       </c>
@@ -1252,8 +1429,11 @@
       <c r="D59">
         <v>-1E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>5.4900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>200409</v>
       </c>
@@ -1266,8 +1446,11 @@
       <c r="D60">
         <v>-2.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>-1.38E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200410</v>
       </c>
@@ -1280,8 +1463,11 @@
       <c r="D61">
         <v>1.4199999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>200411</v>
       </c>
@@ -1294,8 +1480,11 @@
       <c r="D62">
         <v>-2.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>-2.87E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>200412</v>
       </c>
@@ -1308,8 +1497,11 @@
       <c r="D63">
         <v>2.06E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>200501</v>
       </c>
@@ -1322,8 +1514,11 @@
       <c r="D64">
         <v>1.5300000000000001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200502</v>
       </c>
@@ -1336,8 +1531,11 @@
       <c r="D65">
         <v>2.0400000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>200503</v>
       </c>
@@ -1350,8 +1548,11 @@
       <c r="D66">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200504</v>
       </c>
@@ -1364,8 +1565,11 @@
       <c r="D67">
         <v>-6.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>200505</v>
       </c>
@@ -1378,8 +1582,11 @@
       <c r="D68">
         <v>2.8199999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>2.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>200506</v>
       </c>
@@ -1392,8 +1599,11 @@
       <c r="D69">
         <v>-7.8000000000000005E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>200507</v>
       </c>
@@ -1406,8 +1616,11 @@
       <c r="D70">
         <v>1.32E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>200508</v>
       </c>
@@ -1420,8 +1633,11 @@
       <c r="D71">
         <v>7.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>3.4300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>200509</v>
       </c>
@@ -1434,8 +1650,11 @@
       <c r="D72">
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>200510</v>
       </c>
@@ -1448,8 +1667,11 @@
       <c r="D73">
         <v>-1.18E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>3.4999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>200511</v>
       </c>
@@ -1462,8 +1684,11 @@
       <c r="D74">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>200512</v>
       </c>
@@ -1476,8 +1701,11 @@
       <c r="D75">
         <v>1.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>200601</v>
       </c>
@@ -1490,8 +1718,11 @@
       <c r="D76">
         <v>-3.4999999999999996E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>-1.84E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>200602</v>
       </c>
@@ -1504,8 +1735,11 @@
       <c r="D77">
         <v>5.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>200603</v>
       </c>
@@ -1518,8 +1752,11 @@
       <c r="D78">
         <v>2.3399999999999997E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200604</v>
       </c>
@@ -1532,8 +1769,11 @@
       <c r="D79">
         <v>2.4199999999999999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>-3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>200605</v>
       </c>
@@ -1546,8 +1786,11 @@
       <c r="D80">
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>200606</v>
       </c>
@@ -1560,8 +1803,11 @@
       <c r="D81">
         <v>2.6200000000000001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>-2.12E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>200607</v>
       </c>
@@ -1574,8 +1820,11 @@
       <c r="D82">
         <v>-2.06E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>-3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200608</v>
       </c>
@@ -1588,8 +1837,11 @@
       <c r="D83">
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>200609</v>
       </c>
@@ -1602,8 +1854,11 @@
       <c r="D84">
         <v>-3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200610</v>
       </c>
@@ -1616,8 +1871,11 @@
       <c r="D85">
         <v>1.4000000000000002E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>-1.03E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>200611</v>
       </c>
@@ -1630,8 +1888,11 @@
       <c r="D86">
         <v>2.7300000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>200612</v>
       </c>
@@ -1644,8 +1905,11 @@
       <c r="D87">
         <v>-6.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>200701</v>
       </c>
@@ -1658,8 +1922,11 @@
       <c r="D88">
         <v>-1.2999999999999999E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>-1.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>200702</v>
       </c>
@@ -1672,8 +1939,11 @@
       <c r="D89">
         <v>-9.5999999999999992E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>200703</v>
       </c>
@@ -1686,8 +1956,11 @@
       <c r="D90">
         <v>-1.46E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>200704</v>
       </c>
@@ -1700,8 +1973,11 @@
       <c r="D91">
         <v>-6.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>-3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>200705</v>
       </c>
@@ -1714,8 +1990,11 @@
       <c r="D92">
         <v>-1.0700000000000001E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>200706</v>
       </c>
@@ -1728,8 +2007,11 @@
       <c r="D93">
         <v>-3.7200000000000004E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>200707</v>
       </c>
@@ -1742,8 +2024,11 @@
       <c r="D94">
         <v>-1.8600000000000002E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>200708</v>
       </c>
@@ -1756,8 +2041,11 @@
       <c r="D95">
         <v>-2.23E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>200709</v>
       </c>
@@ -1770,8 +2058,11 @@
       <c r="D96">
         <v>-3.0499999999999999E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>5.0199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>200710</v>
       </c>
@@ -1784,8 +2075,11 @@
       <c r="D97">
         <v>-9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>9.8999999999999991E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>200711</v>
       </c>
@@ -1798,8 +2092,11 @@
       <c r="D98">
         <v>-5.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>200712</v>
       </c>
@@ -1812,8 +2109,11 @@
       <c r="D99">
         <v>3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>200801</v>
       </c>
@@ -1826,8 +2126,11 @@
       <c r="D100">
         <v>-8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200802</v>
       </c>
@@ -1840,8 +2143,11 @@
       <c r="D101">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>200803</v>
       </c>
@@ -1854,8 +2160,11 @@
       <c r="D102">
         <v>-1.04E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>200804</v>
       </c>
@@ -1868,8 +2177,11 @@
       <c r="D103">
         <v>-1.49E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>200805</v>
       </c>
@@ -1882,8 +2194,11 @@
       <c r="D104">
         <v>-2.6699999999999998E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>200806</v>
       </c>
@@ -1896,8 +2211,11 @@
       <c r="D105">
         <v>5.4199999999999998E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>200807</v>
       </c>
@@ -1910,8 +2228,11 @@
       <c r="D106">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>-4.0199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>200808</v>
       </c>
@@ -1924,8 +2245,11 @@
       <c r="D107">
         <v>5.9200000000000003E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>2.8000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>200809</v>
       </c>
@@ -1938,8 +2262,11 @@
       <c r="D108">
         <v>-2.3E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>200810</v>
       </c>
@@ -1952,8 +2279,11 @@
       <c r="D109">
         <v>-6.3099999999999989E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>200811</v>
       </c>
@@ -1966,8 +2296,11 @@
       <c r="D110">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>-5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>200812</v>
       </c>
@@ -1980,8 +2313,11 @@
       <c r="D111">
         <v>-0.11289999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>-2.18E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>200901</v>
       </c>
@@ -1994,8 +2330,11 @@
       <c r="D112">
         <v>-6.9500000000000006E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>4.41E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>200902</v>
       </c>
@@ -2008,8 +2347,11 @@
       <c r="D113">
         <v>3.4799999999999998E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>-0.11869999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>200903</v>
       </c>
@@ -2022,8 +2364,11 @@
       <c r="D114">
         <v>5.3600000000000002E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>-0.34299999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>200904</v>
       </c>
@@ -2036,8 +2381,11 @@
       <c r="D115">
         <v>2.7000000000000001E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>-0.1249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>200905</v>
       </c>
@@ -2050,8 +2398,11 @@
       <c r="D116">
         <v>-2.7300000000000001E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>200906</v>
       </c>
@@ -2064,8 +2415,11 @@
       <c r="D117">
         <v>4.8399999999999999E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>-5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>200907</v>
       </c>
@@ -2078,8 +2432,11 @@
       <c r="D118">
         <v>7.6299999999999993E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>200908</v>
       </c>
@@ -2092,8 +2449,11 @@
       <c r="D119">
         <v>1.04E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>200909</v>
       </c>
@@ -2106,8 +2466,11 @@
       <c r="D120">
         <v>-4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>2.6099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>200910</v>
       </c>
@@ -2120,8 +2483,11 @@
       <c r="D121">
         <v>-3.4000000000000002E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>200911</v>
       </c>
@@ -2134,8 +2500,11 @@
       <c r="D122">
         <v>-1.7000000000000001E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>200912</v>
       </c>
@@ -2148,8 +2517,11 @@
       <c r="D123">
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>-5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>201001</v>
       </c>
@@ -2162,8 +2534,11 @@
       <c r="D124">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>201002</v>
       </c>
@@ -2176,8 +2551,11 @@
       <c r="D125">
         <v>2.2099999999999998E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>3.7599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>201003</v>
       </c>
@@ -2190,8 +2568,11 @@
       <c r="D126">
         <v>2.8900000000000002E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>201004</v>
       </c>
@@ -2204,8 +2585,11 @@
       <c r="D127">
         <v>-2.4399999999999998E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>201005</v>
       </c>
@@ -2218,8 +2602,11 @@
       <c r="D128">
         <v>-4.7E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>-2.76E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>201006</v>
       </c>
@@ -2232,8 +2619,11 @@
       <c r="D129">
         <v>-3.3E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>1.8799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>201007</v>
       </c>
@@ -2246,8 +2636,11 @@
       <c r="D130">
         <v>-1.9299999999999998E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>201008</v>
       </c>
@@ -2260,8 +2653,11 @@
       <c r="D131">
         <v>-3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>201009</v>
       </c>
@@ -2274,8 +2670,11 @@
       <c r="D132">
         <v>-2.5099999999999997E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>201010</v>
       </c>
@@ -2288,8 +2687,11 @@
       <c r="D133">
         <v>-9.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>2.6600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>201011</v>
       </c>
@@ -2302,8 +2704,11 @@
       <c r="D134">
         <v>3.7599999999999995E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>-3.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>201012</v>
       </c>
@@ -2316,8 +2721,11 @@
       <c r="D135">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>201101</v>
       </c>
@@ -2330,8 +2738,11 @@
       <c r="D136">
         <v>1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>201102</v>
       </c>
@@ -2344,8 +2755,11 @@
       <c r="D137">
         <v>-1.8500000000000003E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>201103</v>
       </c>
@@ -2358,8 +2772,11 @@
       <c r="D138">
         <v>-2.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>201104</v>
       </c>
@@ -2372,8 +2789,11 @@
       <c r="D139">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>201105</v>
       </c>
@@ -2386,8 +2806,11 @@
       <c r="D140">
         <v>-3.9000000000000003E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>201106</v>
       </c>
@@ -2400,8 +2823,11 @@
       <c r="D141">
         <v>-9.0000000000000011E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>201107</v>
       </c>
@@ -2414,8 +2840,11 @@
       <c r="D142">
         <v>-2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>-2.8000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>201108</v>
       </c>
@@ -2428,8 +2857,11 @@
       <c r="D143">
         <v>-1.72E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>201109</v>
       </c>
@@ -2442,8 +2874,11 @@
       <c r="D144">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>-1.43E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>201110</v>
       </c>
@@ -2456,8 +2891,11 @@
       <c r="D145">
         <v>-4.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201111</v>
       </c>
@@ -2470,8 +2908,11 @@
       <c r="D146">
         <v>1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>201112</v>
       </c>
@@ -2484,8 +2925,11 @@
       <c r="D147">
         <v>-9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>-7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>201201</v>
       </c>
@@ -2498,8 +2942,11 @@
       <c r="D148">
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>201202</v>
       </c>
@@ -2512,8 +2959,11 @@
       <c r="D149">
         <v>1.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>201203</v>
       </c>
@@ -2526,8 +2976,11 @@
       <c r="D150">
         <v>-7.8000000000000005E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>201204</v>
       </c>
@@ -2540,8 +2993,11 @@
       <c r="D151">
         <v>-1.06E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>6.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>201205</v>
       </c>
@@ -2554,8 +3010,11 @@
       <c r="D152">
         <v>6.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>-1.06E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>201206</v>
       </c>
@@ -2568,8 +3027,11 @@
       <c r="D153">
         <v>-2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>201207</v>
       </c>
@@ -2582,8 +3044,11 @@
       <c r="D154">
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>-2.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>201208</v>
       </c>
@@ -2596,8 +3061,11 @@
       <c r="D155">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>-1.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>201209</v>
       </c>
@@ -2610,8 +3078,11 @@
       <c r="D156">
         <v>3.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>201210</v>
       </c>
@@ -2624,8 +3095,11 @@
       <c r="D157">
         <v>-8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>201211</v>
       </c>
@@ -2638,8 +3112,11 @@
       <c r="D158">
         <v>3.5099999999999999E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>-2.86E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>201212</v>
       </c>
@@ -2652,8 +3129,11 @@
       <c r="D159">
         <v>9.5999999999999992E-3</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>201301</v>
       </c>
@@ -2666,8 +3146,11 @@
       <c r="D160">
         <v>1.1000000000000001E-3</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>201302</v>
       </c>
@@ -2680,8 +3163,11 @@
       <c r="D161">
         <v>-1.9E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>201303</v>
       </c>
@@ -2694,8 +3180,11 @@
       <c r="D162">
         <v>4.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>201304</v>
       </c>
@@ -2708,8 +3197,11 @@
       <c r="D163">
         <v>2.63E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>-2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>201305</v>
       </c>
@@ -2722,8 +3214,11 @@
       <c r="D164">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>201306</v>
       </c>
@@ -2736,8 +3231,11 @@
       <c r="D165">
         <v>5.6999999999999993E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>201307</v>
       </c>
@@ -2750,8 +3248,11 @@
       <c r="D166">
         <v>-2.69E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>201308</v>
       </c>
@@ -2764,8 +3265,11 @@
       <c r="D167">
         <v>-1.2199999999999999E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>3.0600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>201309</v>
       </c>
@@ -2778,8 +3282,11 @@
       <c r="D168">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>201310</v>
       </c>
@@ -2792,8 +3299,11 @@
       <c r="D169">
         <v>3.2000000000000002E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>201311</v>
       </c>
@@ -2806,8 +3316,11 @@
       <c r="D170">
         <v>-2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>201312</v>
       </c>
@@ -2820,8 +3333,11 @@
       <c r="D171">
         <v>-2.07E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>201401</v>
       </c>
@@ -2834,8 +3350,11 @@
       <c r="D172">
         <v>-3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>201402</v>
       </c>
@@ -2848,8 +3367,11 @@
       <c r="D173">
         <v>4.9299999999999997E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>-3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>201403</v>
       </c>
@@ -2862,8 +3384,11 @@
       <c r="D174">
         <v>1.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>-3.8900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>201404</v>
       </c>
@@ -2876,8 +3401,11 @@
       <c r="D175">
         <v>-1.2999999999999999E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>201405</v>
       </c>
@@ -2890,8 +3418,11 @@
       <c r="D176">
         <v>-6.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>201406</v>
       </c>
@@ -2904,8 +3435,11 @@
       <c r="D177">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>201407</v>
       </c>
@@ -2918,8 +3452,11 @@
       <c r="D178">
         <v>-4.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>8.199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>201408</v>
       </c>
@@ -2932,8 +3469,11 @@
       <c r="D179">
         <v>-1.34E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>201409</v>
       </c>
@@ -2946,8 +3486,11 @@
       <c r="D180">
         <v>-1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>201410</v>
       </c>
@@ -2960,8 +3503,11 @@
       <c r="D181">
         <v>-3.0899999999999997E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>201411</v>
       </c>
@@ -2974,8 +3520,11 @@
       <c r="D182">
         <v>2.2700000000000001E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>1.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>201412</v>
       </c>
@@ -2988,8 +3537,11 @@
       <c r="D183">
         <v>-3.5799999999999998E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>201501</v>
       </c>
@@ -3002,8 +3554,11 @@
       <c r="D184">
         <v>-1.8600000000000002E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>201502</v>
       </c>
@@ -3016,8 +3571,11 @@
       <c r="D185">
         <v>-3.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>201503</v>
       </c>
@@ -3030,8 +3588,11 @@
       <c r="D186">
         <v>1.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>-7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>201504</v>
       </c>
@@ -3044,8 +3605,11 @@
       <c r="D187">
         <v>-1.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>201505</v>
       </c>
@@ -3058,8 +3622,11 @@
       <c r="D188">
         <v>-7.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>201506</v>
       </c>
@@ -3072,8 +3639,11 @@
       <c r="D189">
         <v>-4.1299999999999996E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>201507</v>
       </c>
@@ -3086,8 +3656,11 @@
       <c r="D190">
         <v>2.7699999999999999E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>201508</v>
       </c>
@@ -3100,8 +3673,11 @@
       <c r="D191">
         <v>5.6000000000000008E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>5.2199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>201509</v>
       </c>
@@ -3114,8 +3690,11 @@
       <c r="D192">
         <v>-4.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>-3.2799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>201510</v>
       </c>
@@ -3128,8 +3707,11 @@
       <c r="D193">
         <v>-4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>2.2799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>201511</v>
       </c>
@@ -3142,8 +3724,11 @@
       <c r="D194">
         <v>-2.6099999999999998E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>201512</v>
       </c>
@@ -3156,8 +3741,11 @@
       <c r="D195">
         <v>2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>201601</v>
       </c>
@@ -3170,8 +3758,11 @@
       <c r="D196">
         <v>-5.6999999999999993E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>-4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>201602</v>
       </c>
@@ -3184,8 +3775,11 @@
       <c r="D197">
         <v>1.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>-5.0099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>201603</v>
       </c>
@@ -3198,8 +3792,11 @@
       <c r="D198">
         <v>3.2799999999999996E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>-6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>201604</v>
       </c>
@@ -3212,8 +3809,11 @@
       <c r="D199">
         <v>-1.66E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>1.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>201605</v>
       </c>
@@ -3226,8 +3826,11 @@
       <c r="D200">
         <v>-1.4800000000000001E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>4.1299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201606</v>
       </c>
@@ -3240,8 +3843,11 @@
       <c r="D201">
         <v>-1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201607</v>
       </c>
@@ -3254,8 +3860,11 @@
       <c r="D202">
         <v>3.1300000000000001E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>-3.49E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201608</v>
       </c>
@@ -3268,8 +3877,11 @@
       <c r="D203">
         <v>-1.23E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201609</v>
       </c>
@@ -3282,8 +3894,11 @@
       <c r="D204">
         <v>4.1200000000000001E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>201610</v>
       </c>
@@ -3296,8 +3911,11 @@
       <c r="D205">
         <v>8.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>-4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>201611</v>
       </c>
@@ -3310,8 +3928,11 @@
       <c r="D206">
         <v>3.56E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>201612</v>
       </c>
@@ -3324,8 +3945,11 @@
       <c r="D207">
         <v>-2.76E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>-9.300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>201701</v>
       </c>
@@ -3338,8 +3962,11 @@
       <c r="D208">
         <v>-1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>201702</v>
       </c>
@@ -3352,8 +3979,11 @@
       <c r="D209">
         <v>-3.32E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201703</v>
       </c>
@@ -3366,8 +3996,11 @@
       <c r="D210">
         <v>-2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>201704</v>
       </c>
@@ -3380,8 +4013,11 @@
       <c r="D211">
         <v>-3.78E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>201705</v>
       </c>
@@ -3394,8 +4030,11 @@
       <c r="D212">
         <v>1.4800000000000001E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201706</v>
       </c>
@@ -3408,8 +4047,11 @@
       <c r="D213">
         <v>-2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201707</v>
       </c>
@@ -3422,8 +4064,11 @@
       <c r="D214">
         <v>-2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201708</v>
       </c>
@@ -3436,8 +4081,11 @@
       <c r="D215">
         <v>3.1200000000000002E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>-1.32E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>201709</v>
       </c>
@@ -3450,8 +4098,11 @@
       <c r="D216">
         <v>2.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201710</v>
       </c>
@@ -3464,8 +4115,11 @@
       <c r="D217">
         <v>-8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>201711</v>
       </c>
@@ -3478,8 +4132,11 @@
       <c r="D218">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201712</v>
       </c>
@@ -3492,8 +4149,11 @@
       <c r="D219">
         <v>-1.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>201801</v>
       </c>
@@ -3506,8 +4166,11 @@
       <c r="D220">
         <v>-1.0700000000000001E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>201802</v>
       </c>
@@ -3520,8 +4183,11 @@
       <c r="D221">
         <v>-2.3E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>-1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>201803</v>
       </c>
@@ -3534,8 +4200,11 @@
       <c r="D222">
         <v>5.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>201804</v>
       </c>
@@ -3548,8 +4217,11 @@
       <c r="D223">
         <v>-3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>3.8900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201805</v>
       </c>
@@ -3562,8 +4234,11 @@
       <c r="D224">
         <v>-2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>201806</v>
       </c>
@@ -3576,8 +4251,11 @@
       <c r="D225">
         <v>4.6999999999999993E-3</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>-1.41E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>201807</v>
       </c>
@@ -3590,8 +4268,11 @@
       <c r="D226">
         <v>-3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>201808</v>
       </c>
@@ -3604,8 +4285,11 @@
       <c r="D227">
         <v>-1.6899999999999998E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201809</v>
       </c>
@@ -3618,8 +4302,11 @@
       <c r="D228">
         <v>3.44E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>201810</v>
       </c>
@@ -3632,8 +4319,11 @@
       <c r="D229">
         <v>2.8000000000000004E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>-1.37E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>201811</v>
       </c>
@@ -3646,8 +4336,11 @@
       <c r="D230">
         <v>-1.8500000000000003E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>2.1099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>201812</v>
       </c>
@@ -3660,8 +4353,11 @@
       <c r="D231">
         <v>-4.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>-8.6800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>201901</v>
       </c>
@@ -3674,8 +4370,11 @@
       <c r="D232">
         <v>-2.6699999999999998E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>201902</v>
       </c>
@@ -3688,8 +4387,11 @@
       <c r="D233">
         <v>-4.0999999999999995E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>2.2099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>201903</v>
       </c>
@@ -3702,8 +4404,11 @@
       <c r="D234">
         <v>2.1400000000000002E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>-2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>201904</v>
       </c>
@@ -3716,8 +4421,11 @@
       <c r="D235">
         <v>-2.35E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>201905</v>
       </c>
@@ -3730,8 +4438,11 @@
       <c r="D236">
         <v>-7.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>201906</v>
       </c>
@@ -3744,8 +4455,11 @@
       <c r="D237">
         <v>4.6999999999999993E-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>2.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>201907</v>
       </c>
@@ -3758,8 +4472,11 @@
       <c r="D238">
         <v>-4.7699999999999992E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>201908</v>
       </c>
@@ -3772,8 +4489,11 @@
       <c r="D239">
         <v>6.7400000000000002E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>-6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>201909</v>
       </c>
@@ -3786,8 +4506,11 @@
       <c r="D240">
         <v>-1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201910</v>
       </c>
@@ -3800,8 +4523,11 @@
       <c r="D241">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>-2.6600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>201911</v>
       </c>
@@ -3814,8 +4540,11 @@
       <c r="D242">
         <v>1.77E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>-1.77E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>201912</v>
       </c>
@@ -3828,8 +4557,11 @@
       <c r="D243">
         <v>-6.2300000000000001E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>5.9800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>202001</v>
       </c>
@@ -3842,8 +4574,11 @@
       <c r="D244">
         <v>-3.7900000000000003E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>202002</v>
       </c>
@@ -3856,8 +4591,11 @@
       <c r="D245">
         <v>-0.13949999999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>7.9699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>202003</v>
       </c>
@@ -3870,8 +4608,11 @@
       <c r="D246">
         <v>-1.26E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>-5.2300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>202004</v>
       </c>
@@ -3884,8 +4625,11 @@
       <c r="D247">
         <v>-4.8899999999999999E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>202005</v>
       </c>
@@ -3898,8 +4642,11 @@
       <c r="D248">
         <v>-2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>202006</v>
       </c>
@@ -3912,8 +4659,11 @@
       <c r="D249">
         <v>-1.37E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>202007</v>
       </c>
@@ -3926,8 +4676,11 @@
       <c r="D250">
         <v>-2.9600000000000001E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>5.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>202008</v>
       </c>
@@ -3940,8 +4693,11 @@
       <c r="D251">
         <v>-2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>3.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>202009</v>
       </c>
@@ -3954,8 +4710,11 @@
       <c r="D252">
         <v>4.2199999999999994E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>-3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>202010</v>
       </c>
@@ -3968,8 +4727,11 @@
       <c r="D253">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>-0.12429999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>202011</v>
       </c>
@@ -3982,8 +4744,11 @@
       <c r="D254">
         <v>-1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>202012</v>
       </c>
@@ -3996,8 +4761,11 @@
       <c r="D255">
         <v>2.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>202101</v>
       </c>
@@ -4010,8 +4778,11 @@
       <c r="D256">
         <v>7.17E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>-7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>202102</v>
       </c>
@@ -4024,8 +4795,11 @@
       <c r="D257">
         <v>7.3899999999999993E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>-6.1399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>202103</v>
       </c>
@@ -4038,8 +4812,11 @@
       <c r="D258">
         <v>-9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>202104</v>
       </c>
@@ -4052,8 +4829,11 @@
       <c r="D259">
         <v>7.0900000000000005E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>202105</v>
       </c>
@@ -4066,8 +4846,11 @@
       <c r="D260">
         <v>-7.8299999999999995E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>202106</v>
       </c>
@@ -4080,8 +4863,11 @@
       <c r="D261">
         <v>-1.78E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>202107</v>
       </c>
@@ -4094,8 +4880,11 @@
       <c r="D262">
         <v>-1.5E-3</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>2.5099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>202108</v>
       </c>
@@ -4108,8 +4897,11 @@
       <c r="D263">
         <v>5.0900000000000001E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>202109</v>
       </c>
@@ -4122,8 +4914,11 @@
       <c r="D264">
         <v>-4.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>202110</v>
       </c>
@@ -4136,8 +4931,11 @@
       <c r="D265">
         <v>-4.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>202111</v>
       </c>
@@ -4150,8 +4948,11 @@
       <c r="D266">
         <v>3.2599999999999997E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>-2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>202112</v>
       </c>
@@ -4164,8 +4965,11 @@
       <c r="D267">
         <v>0.1275</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>-2.52E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>202201</v>
       </c>
@@ -4178,8 +4982,11 @@
       <c r="D268">
         <v>3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>202202</v>
       </c>
@@ -4192,8 +4999,11 @@
       <c r="D269">
         <v>-1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>202203</v>
       </c>
@@ -4206,8 +5016,11 @@
       <c r="D270">
         <v>6.1699999999999998E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>202204</v>
       </c>
@@ -4220,8 +5033,11 @@
       <c r="D271">
         <v>8.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>202205</v>
       </c>
@@ -4234,8 +5050,11 @@
       <c r="D272">
         <v>-5.9800000000000006E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>202206</v>
       </c>
@@ -4248,8 +5067,11 @@
       <c r="D273">
         <v>-4.0999999999999995E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>-3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>202207</v>
       </c>
@@ -4262,8 +5084,11 @@
       <c r="D274">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>202208</v>
       </c>
@@ -4276,8 +5101,11 @@
       <c r="D275">
         <v>5.9999999999999995E-4</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>202209</v>
       </c>
@@ -4290,8 +5118,11 @@
       <c r="D276">
         <v>8.0500000000000002E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>202210</v>
       </c>
@@ -4304,8 +5135,11 @@
       <c r="D277">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>-2.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>202211</v>
       </c>
@@ -4318,8 +5152,11 @@
       <c r="D278">
         <v>1.32E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>202212</v>
       </c>
@@ -4332,8 +5169,11 @@
       <c r="D279">
         <v>-4.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>-0.1598</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>202301</v>
       </c>
@@ -4346,8 +5186,11 @@
       <c r="D280">
         <v>-7.8000000000000005E-3</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>202302</v>
       </c>
@@ -4359,6 +5202,9 @@
       </c>
       <c r="D281">
         <v>-9.01E-2</v>
+      </c>
+      <c r="E281">
+        <v>-2.52E-2</v>
       </c>
     </row>
   </sheetData>
